--- a/results/advglue_res.xlsx
+++ b/results/advglue_res.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31540" windowHeight="13520"/>
+    <workbookView windowWidth="32200" windowHeight="12100"/>
   </bookViews>
   <sheets>
     <sheet name="NaturalNoise_result(2)" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -120,6 +120,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -128,18 +165,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,8 +188,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,22 +204,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -190,6 +212,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -204,58 +256,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -266,73 +266,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,109 +434,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,15 +465,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,6 +489,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,21 +547,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -562,157 +562,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1045,10 +1042,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:Q16"/>
+  <dimension ref="B1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
@@ -1069,775 +1066,831 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="5" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
       <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="2:17">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:18">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.682</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.727</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0.133</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.933</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0.6</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>0.357</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>0.583</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>0.75</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>0.143</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>0.581</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>0.452</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>0.444</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>0.695</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <v>0.632</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <v>0.269</v>
       </c>
+      <c r="R3">
+        <f>P3-Q3</f>
+        <v>0.363</v>
+      </c>
     </row>
-    <row r="4" spans="2:17">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:18">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.746</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.662</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.34</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0.929</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>0.551</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>0.432</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>0.662</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>0.594</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>0.307</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>0.705</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>0.543</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <v>0.257</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <v>0.761</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>0.588</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>0.334</v>
       </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R16" si="0">P4-Q4</f>
+        <v>0.254</v>
+      </c>
     </row>
-    <row r="5" spans="2:17">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:18">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.721</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.603</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>0.184</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>0.689</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>0.508</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>0.298</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>0.608</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>0.523</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>0.468</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>0.479</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>0.413</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>0.379</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>0.624</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <v>0.512</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>0.332</v>
       </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="6" spans="2:17">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:18">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.567</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.517</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>0.471</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0.705</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.566</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>0.396</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>0.504</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>0.472</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>0.453</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>0.366</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>0.455</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>0.405</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <v>0.536</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <v>0.503</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>0.431</v>
       </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>0.072</v>
+      </c>
     </row>
-    <row r="7" spans="2:17">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="2:18">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.612</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.507</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0.317</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>0.9</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0.708</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>0.256</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>0.669</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>0.564</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>0.404</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>0.57</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>0.479</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>0.406</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>0.688</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <v>0.565</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>0.346</v>
       </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>0.219</v>
+      </c>
     </row>
-    <row r="8" spans="2:17">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="2:18">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>0.464</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0.464</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>0.679</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>0.519</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>0.258</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>0.526</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>0.534</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>0.014</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>0.252</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <v>0.252</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>0.48</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <v>0.442</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>0.068</v>
       </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>0.374</v>
+      </c>
     </row>
-    <row r="9" spans="2:17">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="2:18">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>0.69</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.648</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>0.184</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>0.829</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>0.569</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.343</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>0.562</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>0.546</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>0.164</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>0.425</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>0.35</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>0.196</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>0.627</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>0.528</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>0.222</v>
       </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>0.306</v>
+      </c>
     </row>
-    <row r="10" spans="2:17">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="2:18">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>0.593</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0.576</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>0.371</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>0.589</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>0.527</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>0.379</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>0.594</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>0.634</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>0.383</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>0.349</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>0.395</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>0.533</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>0.531</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <v>0.533</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>0.417</v>
       </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>0.116</v>
+      </c>
     </row>
-    <row r="11" spans="2:17">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="2:18">
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>0.429</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>0.446</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>0.083</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>0.598</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>0.542</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>0.484</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>0.645</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>0.609</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>0.31</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>0.353</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>0.318</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>0.467</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>0.506</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <v>0.479</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>0.336</v>
       </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>0.143</v>
+      </c>
     </row>
-    <row r="12" spans="2:17">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="2:18">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>0.607</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>0.607</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>0.351</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>0.783</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>0.583</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>0.356</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>0.543</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>0.581</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>0.314</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>0.435</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>0.357</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>0.5</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>0.592</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>0.532</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>0.38</v>
       </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>0.152</v>
+      </c>
     </row>
-    <row r="13" spans="2:17">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="2:18">
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>0.776</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>0.567</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>0.308</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>0.901</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>0.648</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>0.28</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>0.698</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>0.656</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>0.09</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>0.868</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>0.711</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>0.273</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <v>0.811</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <v>0.646</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <v>0.238</v>
       </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>0.408</v>
+      </c>
     </row>
-    <row r="14" spans="2:17">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="2:18">
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>0.803</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>0.69</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>0.211</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>0.924</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>0.748</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>0.236</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>0.737</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>0.662</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>0.173</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <v>0.521</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <v>0.331</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>0.508</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="3">
         <v>0.746</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="3">
         <v>0.608</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="3">
         <v>0.282</v>
       </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>0.326</v>
+      </c>
     </row>
-    <row r="15" spans="2:17">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="2:18">
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>0.915</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>0.817</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>0.108</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>0.953</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>0.766</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>0.213</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>0.91</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>0.805</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>0.124</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>0.678</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <v>0.579</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>0.159</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <v>0.864</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="3">
         <v>0.742</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <v>0.151</v>
       </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>0.591</v>
+      </c>
     </row>
-    <row r="16" spans="2:17">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="2:18">
+      <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>0.776</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>0.672</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>0.154</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>0.953</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>0.705</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>0.26</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>0.864</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>0.72</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>0.176</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <v>0.735</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <v>0.598</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <v>0.221</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <v>0.832</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="3">
         <v>0.674</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="3">
         <v>0.203</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>0.471</v>
       </c>
     </row>
   </sheetData>

--- a/results/advglue_res.xlsx
+++ b/results/advglue_res.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32200" windowHeight="12100"/>
+    <workbookView windowHeight="13840"/>
   </bookViews>
   <sheets>
     <sheet name="NaturalNoise_result(2)" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Model</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>llama2-70b</t>
+  </si>
+  <si>
+    <t>Mistral-7b</t>
+  </si>
+  <si>
+    <t>PaLM 2</t>
   </si>
 </sst>
 </file>
@@ -91,9 +97,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -114,7 +120,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,18 +133,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,9 +158,77 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,23 +241,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,54 +255,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,31 +272,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,97 +434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,48 +453,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,48 +463,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -517,17 +481,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,6 +522,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -557,157 +548,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,6 +724,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1042,10 +1054,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:R16"/>
+  <dimension ref="B1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
@@ -1073,7 +1085,7 @@
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1"/>
@@ -1892,6 +1904,160 @@
         <f t="shared" si="0"/>
         <v>0.471</v>
       </c>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.606</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.577</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.07</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.763</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.511</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.632</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.511</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.471</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.421</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0.105</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0.618</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0.505</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0.174</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0.331</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.845</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.789</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.083</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.931</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.763</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.246</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.872</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.789</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.112</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0.711</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0.183</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0.877</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0.763</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0.156</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0.607</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
